--- a/que3.xlsx
+++ b/que3.xlsx
@@ -54,10 +54,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +75,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,18 +98,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,142 +441,144 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <f>A2+1-EXP(A2)</f>
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>0.25</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <f>A3+1-EXP(A3)</f>
         <v>-3.4025416687741394E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <f>C2+0.25*(C2-A3)</f>
         <v>-6.25E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6">
         <f>D2+0.25/2*(D2-A2+C3-A3)</f>
         <v>-3.90625E-2</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:F6" si="0">(C3-B3)/B3*100</f>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E6" si="0">(C3-B3)/B3*100</f>
         <v>83.686214848082571</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <f>(D3-B3)/B3*100</f>
         <v>14.80388428005161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <f>A4+1-EXP(A4)</f>
         <v>-0.14872127070012819</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f>C3+0.25*(C3-A4)</f>
         <v>-0.203125</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D6" si="1">D3+0.25/2*(D3-A3+C4-A4)</f>
         <v>-0.1630859375</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>36.581000850623383</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <f t="shared" ref="F4:F6" si="2">(D4-B4)/B4*100</f>
         <v>9.6587843367985862</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>0.75</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <f>A5+1-EXP(A5)</f>
         <v>-0.36700001661267478</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f>C4+0.25*(C4-A5)</f>
         <v>-0.44140625</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f t="shared" si="1"/>
         <v>-0.3948974609375</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>20.274177116959702</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
         <v>7.6014831231649982</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f>A6+1-EXP(A6)</f>
         <v>-0.71828182845904509</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f>C5+0.25*(C5-A6)</f>
         <v>-0.8017578125</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <f t="shared" si="1"/>
         <v>-0.7632293701171875</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>11.621619917635789</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <f t="shared" si="2"/>
         <v>6.2576470512375248</v>
       </c>

--- a/que3.xlsx
+++ b/que3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rxl11_000\Desktop\yu-c-ws\kk2rep2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\大学関係\計算工学2\kk2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,11 +53,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,10 +152,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,7 +441,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F6" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,20 +492,20 @@
         <v>-3.4025416687741394E-2</v>
       </c>
       <c r="C3" s="6">
-        <f>C2+0.25*(C2-A3)</f>
-        <v>-6.25E-2</v>
+        <f>C2+0.25*(C2-A2)</f>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
         <f>D2+0.25/2*(D2-A2+C3-A3)</f>
-        <v>-3.90625E-2</v>
+        <v>-3.125E-2</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E6" si="0">(C3-B3)/B3*100</f>
-        <v>83.686214848082571</v>
+        <v>-100</v>
       </c>
       <c r="F3" s="5">
         <f>(D3-B3)/B3*100</f>
-        <v>14.80388428005161</v>
+        <v>-8.156892575958711</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -516,21 +516,21 @@
         <f>A4+1-EXP(A4)</f>
         <v>-0.14872127070012819</v>
       </c>
-      <c r="C4" s="3">
-        <f>C3+0.25*(C3-A4)</f>
-        <v>-0.203125</v>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C6" si="1">C3+0.25*(C3-A3)</f>
+        <v>-6.25E-2</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D6" si="1">D3+0.25/2*(D3-A3+C4-A4)</f>
-        <v>-0.1630859375</v>
+        <f t="shared" ref="D4:D6" si="2">D3+0.25/2*(D3-A3+C4-A4)</f>
+        <v>-0.13671875</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
-        <v>36.581000850623383</v>
+        <v>-57.975076661346648</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F6" si="2">(D4-B4)/B4*100</f>
-        <v>9.6587843367985862</v>
+        <f t="shared" ref="F4:F6" si="3">(D4-B4)/B4*100</f>
+        <v>-8.0704801966957973</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -541,21 +541,21 @@
         <f>A5+1-EXP(A5)</f>
         <v>-0.36700001661267478</v>
       </c>
-      <c r="C5" s="3">
-        <f>C4+0.25*(C4-A5)</f>
-        <v>-0.44140625</v>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.203125</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.3948974609375</v>
+        <f t="shared" si="2"/>
+        <v>-0.33544921875</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>20.274177116959702</v>
+        <v>-44.652591061222083</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>7.6014831231649982</v>
+        <f t="shared" si="3"/>
+        <v>-8.5969472573547403</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -566,21 +566,21 @@
         <f>A6+1-EXP(A6)</f>
         <v>-0.71828182845904509</v>
       </c>
-      <c r="C6" s="3">
-        <f>C5+0.25*(C5-A6)</f>
-        <v>-0.8017578125</v>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.44140625</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.7632293701171875</v>
+        <f t="shared" si="2"/>
+        <v>-0.65130615234375</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>11.621619917635789</v>
+        <v>-38.546927889438031</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>6.2576470512375248</v>
+        <f t="shared" si="3"/>
+        <v>-9.3244285824382231</v>
       </c>
     </row>
   </sheetData>
